--- a/Back/data_preprocess/태그통계1.xlsx
+++ b/Back/data_preprocess/태그통계1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isagk\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSAFY\S08P22A302\Back\data_preprocess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC02F4E-F5D7-4FA1-9044-13B0E45B274F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="435">
   <si>
     <t>격투</t>
   </si>
@@ -371,9 +370,6 @@
     <t>선계</t>
   </si>
   <si>
-    <t>스포츠물</t>
-  </si>
-  <si>
     <t>캠퍼스물</t>
   </si>
   <si>
@@ -728,9 +724,6 @@
     <t>요리사</t>
   </si>
   <si>
-    <t>시대물</t>
-  </si>
-  <si>
     <t>매니저</t>
   </si>
   <si>
@@ -893,9 +886,6 @@
     <t>사이다녀</t>
   </si>
   <si>
-    <t>복수물</t>
-  </si>
-  <si>
     <t>회귀물</t>
   </si>
   <si>
@@ -989,18 +979,9 @@
     <t>잔잔물</t>
   </si>
   <si>
-    <t>하렘물</t>
-  </si>
-  <si>
-    <t>무협물</t>
-  </si>
-  <si>
     <t>차도남</t>
   </si>
   <si>
-    <t>메디컬물</t>
-  </si>
-  <si>
     <t>재벌남</t>
   </si>
   <si>
@@ -1010,9 +991,6 @@
     <t>나쁜여자</t>
   </si>
   <si>
-    <t>가상시대물</t>
-  </si>
-  <si>
     <t>가족후회물</t>
   </si>
   <si>
@@ -1052,9 +1030,6 @@
     <t>쌍방삽질</t>
   </si>
   <si>
-    <t>전문직물</t>
-  </si>
-  <si>
     <t>애잔물</t>
   </si>
   <si>
@@ -1104,9 +1079,6 @@
   </si>
   <si>
     <t>사내연애</t>
-  </si>
-  <si>
-    <t>오피스물</t>
   </si>
   <si>
     <t>스포츠능력물</t>
@@ -1312,18 +1284,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>동양풍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>시대물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>암투물</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1336,38 +1300,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>오피스물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메디컬물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>법정물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스포츠물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>공포/스릴러물</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>감성물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무협물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방송가물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>정치물</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1376,38 +1312,65 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>로맨스물</t>
+    <t>개그물</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>복수물</t>
+    <t>대분류</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>범죄물</t>
+    <t>소분류</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>하렘물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전문직물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서바이벌물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개그물</t>
+    <t>가상시대</t>
+  </si>
+  <si>
+    <t>방송가</t>
+  </si>
+  <si>
+    <t>오피스</t>
+  </si>
+  <si>
+    <t>법정</t>
+  </si>
+  <si>
+    <t>멀티버스</t>
+  </si>
+  <si>
+    <t>공포/스릴러물</t>
+  </si>
+  <si>
+    <t>캐릭터녀/캐릭터남</t>
+  </si>
+  <si>
+    <t>나이차</t>
+  </si>
+  <si>
+    <t>남녀반전</t>
+  </si>
+  <si>
+    <t xml:space="preserve">법정  </t>
+  </si>
+  <si>
+    <t>후회</t>
+  </si>
+  <si>
+    <t>착각/오해</t>
+  </si>
+  <si>
+    <t>액션 느와르</t>
+  </si>
+  <si>
+    <t>분류</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1496,7 +1459,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1777,11 +1740,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F409"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="A338" sqref="A338"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1793,26 +1756,35 @@
     <col min="5" max="5" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>425</v>
+        <v>419</v>
+      </c>
+      <c r="B1" t="s">
+        <v>420</v>
       </c>
       <c r="C1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="E1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>399</v>
+      </c>
+      <c r="F1" t="s">
+        <v>434</v>
+      </c>
+      <c r="L1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>429</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1823,11 +1795,16 @@
       <c r="E2">
         <v>3.0129920215971251E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -1838,11 +1815,16 @@
       <c r="E3">
         <v>4.8207872345554029E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -1853,11 +1835,16 @@
       <c r="E4">
         <v>4.8207872345554029E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C5">
         <v>23</v>
@@ -1868,11 +1855,16 @@
       <c r="E5">
         <v>1.3859763299346782E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -1883,9 +1875,14 @@
       <c r="E6">
         <v>9.6415744691108057E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1898,11 +1895,16 @@
       <c r="E7">
         <v>0.18620290693470243</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8">
         <v>47</v>
@@ -1913,11 +1915,16 @@
       <c r="E8">
         <v>2.8322125003012989E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C9">
         <v>52</v>
@@ -1928,11 +1935,16 @@
       <c r="E9">
         <v>3.1335117024610122E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>80</v>
@@ -1943,11 +1955,16 @@
       <c r="E10">
         <v>4.8207872345554029E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11">
         <v>215</v>
@@ -1958,9 +1975,14 @@
       <c r="E11">
         <v>0.12955865692867644</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
@@ -1973,11 +1995,16 @@
       <c r="E12">
         <v>0.17656133246559164</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C13">
         <v>75</v>
@@ -1988,13 +2015,16 @@
       <c r="E13">
         <v>4.5194880323956903E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C14">
         <v>16</v>
@@ -2005,11 +2035,16 @@
       <c r="E14">
         <v>9.6415744691108057E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
+      <c r="F14" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>424</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -2020,11 +2055,16 @@
       <c r="E15">
         <v>7.8337792561525305E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
+      <c r="F15" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>424</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C16">
         <v>81</v>
@@ -2035,11 +2075,16 @@
       <c r="E16">
         <v>4.8810470749873457E-2</v>
       </c>
+      <c r="F16" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>424</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C17">
         <v>351</v>
@@ -2050,9 +2095,14 @@
       <c r="E17">
         <v>0.21151203991611831</v>
       </c>
+      <c r="F17" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>424</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>73</v>
       </c>
@@ -2066,13 +2116,15 @@
         <v>0.56945549208185697</v>
       </c>
       <c r="F18" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>424</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C19">
         <v>169</v>
@@ -2083,11 +2135,16 @@
       <c r="E19">
         <v>0.10183913032998289</v>
       </c>
+      <c r="F19" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>424</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C20">
         <v>29</v>
@@ -2098,11 +2155,16 @@
       <c r="E20">
         <v>1.7475353725263335E-2</v>
       </c>
+      <c r="F20" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>424</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C21">
         <v>30</v>
@@ -2113,11 +2175,16 @@
       <c r="E21">
         <v>1.8077952129582759E-2</v>
       </c>
+      <c r="F21" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>424</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C22">
         <v>62</v>
@@ -2128,11 +2195,16 @@
       <c r="E22">
         <v>3.7361101067804374E-2</v>
       </c>
+      <c r="F22" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>424</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C23">
         <v>98</v>
@@ -2143,13 +2215,16 @@
       <c r="E23">
         <v>5.9054643623303683E-2</v>
       </c>
+      <c r="F23" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -2160,11 +2235,16 @@
       <c r="E24">
         <v>7.2311808518331043E-3</v>
       </c>
+      <c r="F24" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>400</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25">
         <v>47</v>
@@ -2175,11 +2255,16 @@
       <c r="E25">
         <v>2.8322125003012989E-2</v>
       </c>
+      <c r="F25" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="3"/>
+      <c r="A26" s="3" t="s">
+        <v>400</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C26">
         <v>84</v>
@@ -2190,11 +2275,16 @@
       <c r="E26">
         <v>5.0618265962831734E-2</v>
       </c>
+      <c r="F26" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="3"/>
+      <c r="A27" s="3" t="s">
+        <v>400</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C27">
         <v>38</v>
@@ -2205,11 +2295,16 @@
       <c r="E27">
         <v>2.2898739364138165E-2</v>
       </c>
+      <c r="F27" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>400</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C28">
         <v>93</v>
@@ -2220,13 +2315,16 @@
       <c r="E28">
         <v>5.6041651601706557E-2</v>
       </c>
+      <c r="F28" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>427</v>
+        <v>222</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C29">
         <v>22</v>
@@ -2237,11 +2335,16 @@
       <c r="E29">
         <v>1.325716489502736E-2</v>
       </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="3"/>
+      <c r="A30" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="B30" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C30">
         <v>39</v>
@@ -2252,11 +2355,16 @@
       <c r="E30">
         <v>2.350133776845759E-2</v>
       </c>
+      <c r="F30" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="3"/>
+      <c r="A31" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="B31" s="1" t="s">
-        <v>320</v>
+        <v>222</v>
       </c>
       <c r="C31">
         <v>46</v>
@@ -2267,11 +2375,16 @@
       <c r="E31">
         <v>2.7719526598693565E-2</v>
       </c>
+      <c r="F31" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="3"/>
+      <c r="A32" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="B32" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C32">
         <v>128</v>
@@ -2282,11 +2395,16 @@
       <c r="E32">
         <v>7.7132595752886446E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="3"/>
+      <c r="F32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="B33" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C33">
         <v>195</v>
@@ -2297,13 +2415,16 @@
       <c r="E33">
         <v>0.11750668884228796</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C34">
         <v>9</v>
@@ -2314,11 +2435,16 @@
       <c r="E34">
         <v>5.4233856388748282E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="3"/>
+      <c r="F34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="3" t="s">
+        <v>423</v>
+      </c>
       <c r="B35" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C35">
         <v>94</v>
@@ -2329,11 +2455,16 @@
       <c r="E35">
         <v>5.6644250006025978E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="3"/>
+      <c r="F35" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
+        <v>423</v>
+      </c>
       <c r="B36" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C36">
         <v>511</v>
@@ -2344,11 +2475,16 @@
       <c r="E36">
         <v>0.30792778460722636</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" s="3"/>
+      <c r="F36" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>423</v>
+      </c>
       <c r="B37" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C37">
         <v>192</v>
@@ -2359,11 +2495,16 @@
       <c r="E37">
         <v>0.11569889362932967</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="3"/>
+      <c r="F37" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="3" t="s">
+        <v>423</v>
+      </c>
       <c r="B38" s="1" t="s">
-        <v>356</v>
+        <v>423</v>
       </c>
       <c r="C38">
         <v>201</v>
@@ -2374,11 +2515,16 @@
       <c r="E38">
         <v>0.12112227926820451</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" s="3"/>
+      <c r="F38" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="3" t="s">
+        <v>423</v>
+      </c>
       <c r="B39" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C39">
         <v>122</v>
@@ -2389,11 +2535,16 @@
       <c r="E39">
         <v>7.3517005326969892E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40" s="3"/>
+      <c r="F39" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="3" t="s">
+        <v>423</v>
+      </c>
       <c r="B40" s="1" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C40">
         <v>82</v>
@@ -2404,13 +2555,16 @@
       <c r="E40">
         <v>4.9413069154192885E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F40" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C41">
         <v>10</v>
@@ -2421,11 +2575,16 @@
       <c r="E41">
         <v>6.0259840431942536E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42" s="3"/>
+      <c r="F41" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="B42" s="1" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C42">
         <v>95</v>
@@ -2436,11 +2595,16 @@
       <c r="E42">
         <v>5.7246848410345406E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43" s="3"/>
+      <c r="F42" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="B43" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C43">
         <v>243</v>
@@ -2451,11 +2615,16 @@
       <c r="E43">
         <v>0.14643141224962036</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="3"/>
+      <c r="F43" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="B44" s="1" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C44">
         <v>122</v>
@@ -2466,9 +2635,14 @@
       <c r="E44">
         <v>7.3517005326969892E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" s="3"/>
+      <c r="F44" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="B45" s="1" t="s">
         <v>36</v>
       </c>
@@ -2481,9 +2655,14 @@
       <c r="E45">
         <v>0.51883722611902527</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="3"/>
+      <c r="F45" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="B46" s="1" t="s">
         <v>96</v>
       </c>
@@ -2496,9 +2675,14 @@
       <c r="E46">
         <v>0.96476004531539994</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="3"/>
+      <c r="F46" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="B47" s="1" t="s">
         <v>80</v>
       </c>
@@ -2511,11 +2695,16 @@
       <c r="E47">
         <v>0.29949140694675441</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="3"/>
+      <c r="F47" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="B48" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C48">
         <v>277</v>
@@ -2526,13 +2715,16 @@
       <c r="E48">
         <v>0.16691975799648082</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F48" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C49">
         <v>18</v>
@@ -2543,11 +2735,16 @@
       <c r="E49">
         <v>1.0846771277749656E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="3"/>
+      <c r="F49" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="3" t="s">
+        <v>415</v>
+      </c>
       <c r="B50" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C50">
         <v>134</v>
@@ -2558,11 +2755,16 @@
       <c r="E50">
         <v>8.0748186178803E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" s="3"/>
+      <c r="F50" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" s="3" t="s">
+        <v>415</v>
+      </c>
       <c r="B51" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C51">
         <v>124</v>
@@ -2573,9 +2775,14 @@
       <c r="E51">
         <v>7.4722202135608748E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52" s="3"/>
+      <c r="F51" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" s="3" t="s">
+        <v>415</v>
+      </c>
       <c r="B52" s="1" t="s">
         <v>100</v>
       </c>
@@ -2588,9 +2795,14 @@
       <c r="E52">
         <v>0.11268590160773255</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" s="3"/>
+      <c r="F52" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" s="3" t="s">
+        <v>415</v>
+      </c>
       <c r="B53" s="1" t="s">
         <v>68</v>
       </c>
@@ -2603,11 +2815,16 @@
       <c r="E53">
         <v>0.15004700267553692</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A54" s="3"/>
+      <c r="F53" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" s="3" t="s">
+        <v>415</v>
+      </c>
       <c r="B54" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C54">
         <v>133</v>
@@ -2618,9 +2835,14 @@
       <c r="E54">
         <v>8.0145587774483579E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A55" s="3"/>
+      <c r="F54" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" s="3" t="s">
+        <v>415</v>
+      </c>
       <c r="B55" s="1" t="s">
         <v>98</v>
       </c>
@@ -2633,10 +2855,13 @@
       <c r="E55">
         <v>9.2800154265191503E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F55" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
-        <v>432</v>
+        <v>360</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>46</v>
@@ -2650,11 +2875,16 @@
       <c r="E56">
         <v>0.11148070479909369</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A57" s="3"/>
+      <c r="F56" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="B57" s="1" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="C57">
         <v>77</v>
@@ -2665,9 +2895,14 @@
       <c r="E57">
         <v>4.6400077132595752E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A58" s="3"/>
+      <c r="F57" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="B58" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,11 +2915,16 @@
       <c r="E58">
         <v>0.46701376334755468</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A59" s="3"/>
+      <c r="F58" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="B59" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C59">
         <v>340</v>
@@ -2695,11 +2935,16 @@
       <c r="E59">
         <v>0.20488345746860465</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A60" s="3"/>
+      <c r="F59" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="B60" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C60">
         <v>279</v>
@@ -2710,11 +2955,16 @@
       <c r="E60">
         <v>0.16812495480511969</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A61" s="3"/>
+      <c r="F60" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="B61" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C61">
         <v>167</v>
@@ -2725,11 +2975,16 @@
       <c r="E61">
         <v>0.10063393352134403</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A62" s="3"/>
+      <c r="F61" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="B62" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C62">
         <v>10</v>
@@ -2740,11 +2995,16 @@
       <c r="E62">
         <v>6.0259840431942536E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A63" s="3"/>
+      <c r="F62" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="B63" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C63">
         <v>17</v>
@@ -2755,11 +3015,16 @@
       <c r="E63">
         <v>1.0244172873430232E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A64" s="3"/>
+      <c r="F63" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="B64" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C64">
         <v>148</v>
@@ -2770,11 +3035,16 @@
       <c r="E64">
         <v>8.918456383927495E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A65" s="3"/>
+      <c r="F64" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="B65" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C65">
         <v>25</v>
@@ -2785,11 +3055,16 @@
       <c r="E65">
         <v>1.5064960107985633E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A66" s="3"/>
+      <c r="F65" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="B66" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C66">
         <v>80</v>
@@ -2800,9 +3075,14 @@
       <c r="E66">
         <v>4.8207872345554029E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A67" s="3"/>
+      <c r="F66" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="B67" s="1" t="s">
         <v>47</v>
       </c>
@@ -2815,11 +3095,16 @@
       <c r="E67">
         <v>4.5797478728276331E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A68" s="3"/>
+      <c r="F67" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="B68" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C68">
         <v>100</v>
@@ -2830,11 +3115,16 @@
       <c r="E68">
         <v>6.0259840431942532E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A69" s="3"/>
+      <c r="F68" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="B69" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C69">
         <v>199</v>
@@ -2845,11 +3135,16 @@
       <c r="E69">
         <v>0.11991708245956566</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A70" s="3"/>
+      <c r="F69" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="B70" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C70">
         <v>199</v>
@@ -2860,11 +3155,16 @@
       <c r="E70">
         <v>0.11991708245956566</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A71" s="3"/>
+      <c r="F70" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="B71" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C71">
         <v>29</v>
@@ -2875,11 +3175,16 @@
       <c r="E71">
         <v>1.7475353725263335E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A72" s="3"/>
+      <c r="F71" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="B72" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C72">
         <v>305</v>
@@ -2890,11 +3195,16 @@
       <c r="E72">
         <v>0.18379251331742472</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A73" s="3"/>
+      <c r="F72" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="B73" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C73">
         <v>33</v>
@@ -2905,11 +3215,16 @@
       <c r="E73">
         <v>1.9885747342541036E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A74" s="3"/>
+      <c r="F73" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="B74" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C74">
         <v>44</v>
@@ -2920,11 +3235,16 @@
       <c r="E74">
         <v>2.6514329790054719E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A75" s="3"/>
+      <c r="F74" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="B75" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C75">
         <v>348</v>
@@ -2935,11 +3255,16 @@
       <c r="E75">
         <v>0.20970424470316004</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A76" s="3"/>
+      <c r="F75" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="B76" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C76">
         <v>260</v>
@@ -2950,11 +3275,16 @@
       <c r="E76">
         <v>0.1566755851230506</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A77" s="3"/>
+      <c r="F76" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="B77" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C77">
         <v>30</v>
@@ -2965,11 +3295,16 @@
       <c r="E77">
         <v>1.8077952129582759E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A78" s="3"/>
+      <c r="F77" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A78" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="B78" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C78">
         <v>125</v>
@@ -2980,11 +3315,16 @@
       <c r="E78">
         <v>7.5324800539928169E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A79" s="3"/>
+      <c r="F78" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="B79" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C79">
         <v>24</v>
@@ -2995,11 +3335,16 @@
       <c r="E79">
         <v>1.4462361703666209E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A80" s="3"/>
+      <c r="F79" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="B80" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C80">
         <v>43</v>
@@ -3010,13 +3355,16 @@
       <c r="E80">
         <v>2.5911731385735291E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F80" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C81">
         <v>16</v>
@@ -3027,9 +3375,14 @@
       <c r="E81">
         <v>9.6415744691108057E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A82" s="3"/>
+      <c r="F81" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A82" s="3" t="s">
+        <v>422</v>
+      </c>
       <c r="B82" s="1" t="s">
         <v>16</v>
       </c>
@@ -3042,11 +3395,16 @@
       <c r="E82">
         <v>9.7620941499746913E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A83" s="3"/>
+      <c r="F82" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A83" s="3" t="s">
+        <v>422</v>
+      </c>
       <c r="B83" s="1" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C83">
         <v>20</v>
@@ -3057,11 +3415,16 @@
       <c r="E83">
         <v>1.2051968086388507E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A84" s="3"/>
+      <c r="F83" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A84" s="3" t="s">
+        <v>422</v>
+      </c>
       <c r="B84" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C84">
         <v>66</v>
@@ -3072,11 +3435,16 @@
       <c r="E84">
         <v>3.9771494685082072E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A85" s="3"/>
+      <c r="F84" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A85" s="3" t="s">
+        <v>422</v>
+      </c>
       <c r="B85" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C85">
         <v>57</v>
@@ -3087,11 +3455,16 @@
       <c r="E85">
         <v>3.4348109046207241E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A86" s="3"/>
+      <c r="F85" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A86" s="3" t="s">
+        <v>422</v>
+      </c>
       <c r="B86" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C86">
         <v>58</v>
@@ -3102,11 +3475,16 @@
       <c r="E86">
         <v>3.4950707450526669E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A87" s="3"/>
+      <c r="F86" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A87" s="3" t="s">
+        <v>422</v>
+      </c>
       <c r="B87" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C87">
         <v>80</v>
@@ -3117,11 +3495,16 @@
       <c r="E87">
         <v>4.8207872345554029E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A88" s="3"/>
+      <c r="F87" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A88" s="3" t="s">
+        <v>422</v>
+      </c>
       <c r="B88" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C88">
         <v>114</v>
@@ -3132,9 +3515,14 @@
       <c r="E88">
         <v>6.8696218092414482E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A89" s="3"/>
+      <c r="F88" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A89" s="3" t="s">
+        <v>422</v>
+      </c>
       <c r="B89" s="1" t="s">
         <v>17</v>
       </c>
@@ -3147,13 +3535,16 @@
       <c r="E89">
         <v>8.0145587774483579E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F89" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C90">
         <v>14</v>
@@ -3164,11 +3555,16 @@
       <c r="E90">
         <v>8.436377660471955E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A91" s="3"/>
+      <c r="F90" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A91" s="3" t="s">
+        <v>416</v>
+      </c>
       <c r="B91" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C91">
         <v>133</v>
@@ -3179,11 +3575,16 @@
       <c r="E91">
         <v>8.0145587774483579E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A92" s="3"/>
+      <c r="F91" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A92" s="3" t="s">
+        <v>416</v>
+      </c>
       <c r="B92" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C92">
         <v>82</v>
@@ -3194,13 +3595,16 @@
       <c r="E92">
         <v>4.9413069154192885E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F92" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C93">
         <v>39</v>
@@ -3211,9 +3615,14 @@
       <c r="E93">
         <v>2.350133776845759E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A94" s="3"/>
+      <c r="F93" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A94" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B94" s="1" t="s">
         <v>37</v>
       </c>
@@ -3226,11 +3635,16 @@
       <c r="E94">
         <v>0.41639549738472292</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A95" s="3"/>
+      <c r="F94" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A95" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B95" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C95">
         <v>39</v>
@@ -3241,11 +3655,16 @@
       <c r="E95">
         <v>2.350133776845759E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A96" s="3"/>
+      <c r="F95" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A96" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B96" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C96">
         <v>19</v>
@@ -3256,11 +3675,16 @@
       <c r="E96">
         <v>1.1449369682069083E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A97" s="3"/>
+      <c r="F96" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A97" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B97" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C97">
         <v>36</v>
@@ -3271,11 +3695,16 @@
       <c r="E97">
         <v>2.1693542555499313E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A98" s="3"/>
+      <c r="F97" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A98" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B98" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C98">
         <v>130</v>
@@ -3286,11 +3715,16 @@
       <c r="E98">
         <v>7.8337792561525302E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A99" s="3"/>
+      <c r="F98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A99" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B99" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C99">
         <v>287</v>
@@ -3301,11 +3735,16 @@
       <c r="E99">
         <v>0.17294574203967508</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A100" s="3"/>
+      <c r="F99" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A100" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B100" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C100">
         <v>82</v>
@@ -3316,11 +3755,16 @@
       <c r="E100">
         <v>4.9413069154192885E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A101" s="3"/>
+      <c r="F100" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A101" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B101" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C101">
         <v>1340</v>
@@ -3331,11 +3775,16 @@
       <c r="E101">
         <v>0.80748186178802994</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A102" s="3"/>
+      <c r="F101" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A102" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B102" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C102">
         <v>4631</v>
@@ -3346,9 +3795,14 @@
       <c r="E102">
         <v>2.7906332104032585</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A103" s="3"/>
+      <c r="F102" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A103" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B103" s="1" t="s">
         <v>58</v>
       </c>
@@ -3361,11 +3815,16 @@
       <c r="E103">
         <v>0.47484754260370721</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A104" s="3"/>
+      <c r="F103" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A104" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B104" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C104">
         <v>463</v>
@@ -3376,11 +3835,16 @@
       <c r="E104">
         <v>0.27900306119989393</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A105" s="3"/>
+      <c r="F104" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A105" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B105" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C105">
         <v>322</v>
@@ -3391,9 +3855,14 @@
       <c r="E105">
         <v>0.19403668619085498</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A106" s="3"/>
+      <c r="F105" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A106" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B106" s="1" t="s">
         <v>60</v>
       </c>
@@ -3406,9 +3875,14 @@
       <c r="E106">
         <v>8.1953382987441856E-2</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A107" s="3"/>
+      <c r="F106" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A107" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B107" s="1" t="s">
         <v>2</v>
       </c>
@@ -3421,11 +3895,16 @@
       <c r="E107">
         <v>0.12775086171571817</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A108" s="3"/>
+      <c r="F107" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A108" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B108" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C108">
         <v>287</v>
@@ -3436,11 +3915,16 @@
       <c r="E108">
         <v>0.17294574203967508</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A109" s="3"/>
+      <c r="F108" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A109" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B109" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C109">
         <v>365</v>
@@ -3451,11 +3935,16 @@
       <c r="E109">
         <v>0.21994841757659025</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A110" s="3"/>
+      <c r="F109" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A110" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B110" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C110">
         <v>551</v>
@@ -3466,11 +3955,16 @@
       <c r="E110">
         <v>0.33203172078000337</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A111" s="3"/>
+      <c r="F110" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A111" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B111" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C111">
         <v>136</v>
@@ -3481,11 +3975,16 @@
       <c r="E111">
         <v>8.1953382987441856E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A112" s="3"/>
+      <c r="F111" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A112" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B112" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C112">
         <v>193</v>
@@ -3496,11 +3995,16 @@
       <c r="E112">
         <v>0.1163014920336491</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A113" s="3"/>
+      <c r="F112" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A113" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B113" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C113">
         <v>532</v>
@@ -3511,11 +4015,16 @@
       <c r="E113">
         <v>0.32058235109793431</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A114" s="3"/>
+      <c r="F113" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A114" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B114" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C114">
         <v>255</v>
@@ -3526,11 +4035,16 @@
       <c r="E114">
         <v>0.15366259310145347</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A115" s="3"/>
+      <c r="F114" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A115" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B115" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C115">
         <v>123</v>
@@ -3541,11 +4055,16 @@
       <c r="E115">
         <v>7.4119603731289313E-2</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A116" s="3"/>
+      <c r="F115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A116" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B116" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C116">
         <v>102</v>
@@ -3556,11 +4075,16 @@
       <c r="E116">
         <v>6.1465037240581388E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A117" s="3"/>
+      <c r="F116" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A117" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B117" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C117">
         <v>171</v>
@@ -3571,11 +4095,16 @@
       <c r="E117">
         <v>0.10304432713862173</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A118" s="3"/>
+      <c r="F117" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A118" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B118" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C118">
         <v>163</v>
@@ -3586,11 +4115,16 @@
       <c r="E118">
         <v>9.8223539904066334E-2</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A119" s="3"/>
+      <c r="F118" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A119" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B119" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C119">
         <v>472</v>
@@ -3601,11 +4135,16 @@
       <c r="E119">
         <v>0.28442644683876878</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A120" s="3"/>
+      <c r="F119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A120" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B120" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C120">
         <v>280</v>
@@ -3616,11 +4155,16 @@
       <c r="E120">
         <v>0.16872755320943908</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A121" s="3"/>
+      <c r="F120" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A121" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B121" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C121">
         <v>15</v>
@@ -3631,11 +4175,16 @@
       <c r="E121">
         <v>9.0389760647913795E-3</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A122" s="3"/>
+      <c r="F121" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A122" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B122" s="1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C122">
         <v>108</v>
@@ -3646,11 +4195,16 @@
       <c r="E122">
         <v>6.5080627666497942E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A123" s="3"/>
+      <c r="F122" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A123" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B123" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C123">
         <v>14</v>
@@ -3661,11 +4215,16 @@
       <c r="E123">
         <v>8.436377660471955E-3</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A124" s="3"/>
+      <c r="F123" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A124" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B124" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C124">
         <v>119</v>
@@ -3676,11 +4235,16 @@
       <c r="E124">
         <v>7.1709210114011615E-2</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A125" s="3"/>
+      <c r="F124" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A125" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B125" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C125">
         <v>35</v>
@@ -3691,11 +4255,16 @@
       <c r="E125">
         <v>2.1090944151179885E-2</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A126" s="3"/>
+      <c r="F125" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A126" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B126" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C126">
         <v>87</v>
@@ -3706,11 +4275,16 @@
       <c r="E126">
         <v>5.2426061175790011E-2</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A127" s="3"/>
+      <c r="F126" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A127" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B127" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C127">
         <v>21</v>
@@ -3721,11 +4295,16 @@
       <c r="E127">
         <v>1.2654566490707933E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A128" s="3"/>
+      <c r="F127" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A128" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B128" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C128">
         <v>136</v>
@@ -3736,11 +4315,16 @@
       <c r="E128">
         <v>8.1953382987441856E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A129" s="3"/>
+      <c r="F128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A129" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B129" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C129">
         <v>38</v>
@@ -3751,11 +4335,16 @@
       <c r="E129">
         <v>2.2898739364138165E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A130" s="3"/>
+      <c r="F129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A130" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B130" s="1" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C130">
         <v>43</v>
@@ -3766,11 +4355,16 @@
       <c r="E130">
         <v>2.5911731385735291E-2</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A131" s="3"/>
+      <c r="F130" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A131" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B131" s="1" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C131">
         <v>128</v>
@@ -3781,9 +4375,14 @@
       <c r="E131">
         <v>7.7132595752886446E-2</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A132" s="3"/>
+      <c r="F131" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A132" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B132" s="1" t="s">
         <v>12</v>
       </c>
@@ -3796,11 +4395,16 @@
       <c r="E132">
         <v>0.60380360112806419</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A133" s="3"/>
+      <c r="F132" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A133" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B133" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C133">
         <v>641</v>
@@ -3811,11 +4415,16 @@
       <c r="E133">
         <v>0.38626557716875165</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A134" s="3"/>
+      <c r="F133" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A134" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B134" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C134">
         <v>106</v>
@@ -3826,9 +4435,14 @@
       <c r="E134">
         <v>6.3875430857859086E-2</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A135" s="3"/>
+      <c r="F134" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A135" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B135" s="1" t="s">
         <v>71</v>
       </c>
@@ -3841,9 +4455,14 @@
       <c r="E135">
         <v>1.5631402608045895</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A136" s="3"/>
+      <c r="F135" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A136" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B136" s="1" t="s">
         <v>72</v>
       </c>
@@ -3856,11 +4475,16 @@
       <c r="E136">
         <v>1.5631402608045895</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A137" s="3"/>
+      <c r="F136" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A137" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B137" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C137">
         <v>507</v>
@@ -3871,11 +4495,16 @@
       <c r="E137">
         <v>0.30551739098994862</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A138" s="3"/>
+      <c r="F137" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A138" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B138" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C138">
         <v>68</v>
@@ -3886,11 +4515,16 @@
       <c r="E138">
         <v>4.0976691493720928E-2</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A139" s="3"/>
+      <c r="F138" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A139" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B139" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C139">
         <v>108</v>
@@ -3901,11 +4535,16 @@
       <c r="E139">
         <v>6.5080627666497942E-2</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A140" s="3"/>
+      <c r="F139" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A140" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B140" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C140">
         <v>56</v>
@@ -3916,11 +4555,16 @@
       <c r="E140">
         <v>3.374551064188782E-2</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A141" s="3"/>
+      <c r="F140" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A141" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B141" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C141">
         <v>64</v>
@@ -3931,11 +4575,16 @@
       <c r="E141">
         <v>3.8566297876443223E-2</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A142" s="3"/>
+      <c r="F141" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A142" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B142" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C142">
         <v>90</v>
@@ -3946,9 +4595,14 @@
       <c r="E142">
         <v>5.4233856388748281E-2</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A143" s="3"/>
+      <c r="F142" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A143" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B143" s="1" t="s">
         <v>64</v>
       </c>
@@ -3961,11 +4615,16 @@
       <c r="E143">
         <v>9.3402752669510938E-2</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A144" s="3"/>
+      <c r="F143" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A144" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="B144" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C144">
         <v>125</v>
@@ -3976,13 +4635,16 @@
       <c r="E144">
         <v>7.5324800539928169E-2</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F144" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" s="3" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C145">
         <v>36</v>
@@ -3993,9 +4655,14 @@
       <c r="E145">
         <v>2.1693542555499313E-2</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A146" s="3"/>
+      <c r="F145" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A146" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B146" s="1" t="s">
         <v>106</v>
       </c>
@@ -4008,9 +4675,14 @@
       <c r="E146">
         <v>0.93101453467351225</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A147" s="3"/>
+      <c r="F146" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A147" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B147" s="1" t="s">
         <v>28</v>
       </c>
@@ -4023,11 +4695,16 @@
       <c r="E147">
         <v>1.2226721623641139</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A148" s="3"/>
+      <c r="F147" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A148" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B148" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C148">
         <v>3428</v>
@@ -4038,9 +4715,14 @@
       <c r="E148">
         <v>2.0657073300069899</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A149" s="3"/>
+      <c r="F148" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A149" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B149" s="1" t="s">
         <v>30</v>
       </c>
@@ -4053,11 +4735,16 @@
       <c r="E149">
         <v>0.97078602935859426</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A150" s="3"/>
+      <c r="F149" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A150" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B150" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C150">
         <v>740</v>
@@ -4068,11 +4755,16 @@
       <c r="E150">
         <v>0.44592281919637478</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A151" s="3"/>
+      <c r="F150" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A151" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B151" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C151">
         <v>1937</v>
@@ -4083,11 +4775,16 @@
       <c r="E151">
         <v>1.167233109166727</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A152" s="3"/>
+      <c r="F151" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A152" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B152" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C152">
         <v>1670</v>
@@ -4098,9 +4795,14 @@
       <c r="E152">
         <v>1.0063393352134404</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A153" s="3"/>
+      <c r="F152" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A153" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B153" s="1" t="s">
         <v>29</v>
       </c>
@@ -4113,11 +4815,16 @@
       <c r="E153">
         <v>0.59114903463735624</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A154" s="3"/>
+      <c r="F153" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A154" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B154" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C154">
         <v>969</v>
@@ -4128,11 +4835,16 @@
       <c r="E154">
         <v>0.58391785378552319</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A155" s="3"/>
+      <c r="F154" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A155" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B155" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C155">
         <v>988</v>
@@ -4143,11 +4855,16 @@
       <c r="E155">
         <v>0.5953672234675923</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A156" s="3"/>
+      <c r="F155" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A156" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B156" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C156">
         <v>723</v>
@@ -4158,9 +4875,14 @@
       <c r="E156">
         <v>0.43567864632294456</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A157" s="3"/>
+      <c r="F156" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A157" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B157" s="1" t="s">
         <v>107</v>
       </c>
@@ -4173,11 +4895,16 @@
       <c r="E157">
         <v>0.3947019548292236</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A158" s="3"/>
+      <c r="F157" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A158" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B158" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C158">
         <v>763</v>
@@ -4188,11 +4915,16 @@
       <c r="E158">
         <v>0.45978258249572151</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A159" s="3"/>
+      <c r="F158" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A159" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B159" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C159">
         <v>497</v>
@@ -4203,11 +4935,16 @@
       <c r="E159">
         <v>0.29949140694675441</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A160" s="3"/>
+      <c r="F159" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A160" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B160" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C160">
         <v>692</v>
@@ -4218,11 +4955,16 @@
       <c r="E160">
         <v>0.41699809578904234</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A161" s="3"/>
+      <c r="F160" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A161" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B161" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C161">
         <v>716</v>
@@ -4233,11 +4975,16 @@
       <c r="E161">
         <v>0.43146045749270856</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A162" s="3"/>
+      <c r="F161" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A162" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B162" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C162">
         <v>417</v>
@@ -4248,11 +4995,16 @@
       <c r="E162">
         <v>0.2512835346012004</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A163" s="3"/>
+      <c r="F162" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A163" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B163" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C163">
         <v>661</v>
@@ -4263,11 +5015,16 @@
       <c r="E163">
         <v>0.39831754525514018</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A164" s="3"/>
+      <c r="F163" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A164" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B164" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C164">
         <v>572</v>
@@ -4278,11 +5035,16 @@
       <c r="E164">
         <v>0.34468628727071127</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A165" s="3"/>
+      <c r="F164" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A165" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B165" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C165">
         <v>556</v>
@@ -4293,9 +5055,14 @@
       <c r="E165">
         <v>0.33504471280160047</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A166" s="3"/>
+      <c r="F165" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A166" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B166" s="1" t="s">
         <v>78</v>
       </c>
@@ -4308,9 +5075,14 @@
       <c r="E166">
         <v>0.3609564441873358</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A167" s="3"/>
+      <c r="F166" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A167" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B167" s="1" t="s">
         <v>93</v>
       </c>
@@ -4323,11 +5095,16 @@
       <c r="E167">
         <v>0.39229156121194592</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A168" s="3"/>
+      <c r="F167" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A168" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B168" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C168">
         <v>556</v>
@@ -4338,11 +5115,16 @@
       <c r="E168">
         <v>0.33504471280160047</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A169" s="3"/>
+      <c r="F168" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A169" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B169" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C169">
         <v>428</v>
@@ -4353,9 +5135,14 @@
       <c r="E169">
         <v>0.25791211704871408</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A170" s="3"/>
+      <c r="F169" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A170" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B170" s="1" t="s">
         <v>31</v>
       </c>
@@ -4368,9 +5155,14 @@
       <c r="E170">
         <v>0.23139778725865934</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A171" s="3"/>
+      <c r="F170" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A171" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B171" s="1" t="s">
         <v>27</v>
       </c>
@@ -4383,11 +5175,16 @@
       <c r="E171">
         <v>0.31395376865042063</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A172" s="3"/>
+      <c r="F171" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A172" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B172" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C172">
         <v>378</v>
@@ -4398,11 +5195,16 @@
       <c r="E172">
         <v>0.22778219683274281</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A173" s="3"/>
+      <c r="F172" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A173" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B173" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C173">
         <v>347</v>
@@ -4413,11 +5215,16 @@
       <c r="E173">
         <v>0.20910164629884062</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A174" s="3"/>
+      <c r="F173" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A174" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B174" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C174">
         <v>380</v>
@@ -4428,11 +5235,16 @@
       <c r="E174">
         <v>0.22898739364138163</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A175" s="3"/>
+      <c r="F174" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A175" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B175" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C175">
         <v>343</v>
@@ -4443,11 +5255,16 @@
       <c r="E175">
         <v>0.20669125268156291</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A176" s="3"/>
+      <c r="F175" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A176" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B176" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C176">
         <v>479</v>
@@ -4458,9 +5275,14 @@
       <c r="E176">
         <v>0.28864463566900478</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A177" s="3"/>
+      <c r="F176" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A177" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B177" s="1" t="s">
         <v>84</v>
       </c>
@@ -4473,9 +5295,14 @@
       <c r="E177">
         <v>0.20970424470316004</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A178" s="3"/>
+      <c r="F177" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A178" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B178" s="1" t="s">
         <v>26</v>
       </c>
@@ -4488,11 +5315,16 @@
       <c r="E178">
         <v>0.21934581917227081</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A179" s="3"/>
+      <c r="F178" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A179" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B179" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C179">
         <v>273</v>
@@ -4503,11 +5335,16 @@
       <c r="E179">
         <v>0.16450936437920313</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A180" s="3"/>
+      <c r="F179" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A180" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B180" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C180">
         <v>258</v>
@@ -4518,11 +5355,16 @@
       <c r="E180">
         <v>0.15547038831441173</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A181" s="3"/>
+      <c r="F180" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A181" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B181" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C181">
         <v>261</v>
@@ -4533,11 +5375,16 @@
       <c r="E181">
         <v>0.15727818352737002</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A182" s="3"/>
+      <c r="F181" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A182" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B182" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C182">
         <v>231</v>
@@ -4548,9 +5395,14 @@
       <c r="E182">
         <v>0.13920023139778726</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A183" s="3"/>
+      <c r="F182" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A183" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B183" s="1" t="s">
         <v>108</v>
       </c>
@@ -4563,11 +5415,16 @@
       <c r="E183">
         <v>0.18318991491310532</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A184" s="3"/>
+      <c r="F183" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A184" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B184" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C184">
         <v>173</v>
@@ -4578,11 +5435,16 @@
       <c r="E184">
         <v>0.10424952394726059</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A185" s="3"/>
+      <c r="F184" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A185" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B185" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C185">
         <v>193</v>
@@ -4593,11 +5455,16 @@
       <c r="E185">
         <v>0.1163014920336491</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A186" s="3"/>
+      <c r="F185" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A186" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B186" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C186">
         <v>170</v>
@@ -4608,11 +5475,16 @@
       <c r="E186">
         <v>0.10244172873430232</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A187" s="3"/>
+      <c r="F186" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A187" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B187" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C187">
         <v>219</v>
@@ -4623,11 +5495,16 @@
       <c r="E187">
         <v>0.13196905054595415</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A188" s="3"/>
+      <c r="F187" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A188" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B188" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C188">
         <v>232</v>
@@ -4638,11 +5515,16 @@
       <c r="E188">
         <v>0.13980282980210668</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A189" s="3"/>
+      <c r="F188" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A189" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B189" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C189">
         <v>267</v>
@@ -4653,9 +5535,14 @@
       <c r="E189">
         <v>0.16089377395328658</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A190" s="3"/>
+      <c r="F189" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A190" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B190" s="1" t="s">
         <v>21</v>
       </c>
@@ -4668,11 +5555,16 @@
       <c r="E190">
         <v>0.25911731385735287</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A191" s="3"/>
+      <c r="F190" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A191" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B191" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C191">
         <v>191</v>
@@ -4683,11 +5575,16 @@
       <c r="E191">
         <v>0.11509629522501025</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A192" s="3"/>
+      <c r="F191" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A192" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B192" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C192">
         <v>171</v>
@@ -4698,9 +5595,14 @@
       <c r="E192">
         <v>0.10304432713862173</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A193" s="3"/>
+      <c r="F192" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A193" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B193" s="1" t="s">
         <v>95</v>
       </c>
@@ -4713,11 +5615,16 @@
       <c r="E193">
         <v>0.13618723937619015</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A194" s="3"/>
+      <c r="F193" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A194" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B194" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C194">
         <v>133</v>
@@ -4728,11 +5635,16 @@
       <c r="E194">
         <v>8.0145587774483579E-2</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A195" s="3"/>
+      <c r="F194" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A195" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B195" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C195">
         <v>129</v>
@@ -4743,11 +5655,16 @@
       <c r="E195">
         <v>7.7735194157205867E-2</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A196" s="3"/>
+      <c r="F195" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A196" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B196" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C196">
         <v>86</v>
@@ -4758,11 +5675,16 @@
       <c r="E196">
         <v>5.1823462771470583E-2</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A197" s="3"/>
+      <c r="F196" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A197" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B197" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C197">
         <v>101</v>
@@ -4773,11 +5695,16 @@
       <c r="E197">
         <v>6.086243883626196E-2</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A198" s="3"/>
+      <c r="F197" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A198" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B198" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C198">
         <v>140</v>
@@ -4788,11 +5715,16 @@
       <c r="E198">
         <v>8.436377660471954E-2</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A199" s="3"/>
+      <c r="F198" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A199" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B199" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C199">
         <v>91</v>
@@ -4803,11 +5735,16 @@
       <c r="E199">
         <v>5.4836454793067702E-2</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A200" s="3"/>
+      <c r="F199" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A200" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B200" s="1" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C200">
         <v>32</v>
@@ -4818,11 +5755,16 @@
       <c r="E200">
         <v>1.9283148938221611E-2</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A201" s="3"/>
+      <c r="F200" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A201" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B201" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C201">
         <v>14</v>
@@ -4833,11 +5775,16 @@
       <c r="E201">
         <v>8.436377660471955E-3</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A202" s="3"/>
+      <c r="F201" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A202" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B202" s="1" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C202">
         <v>97</v>
@@ -4848,11 +5795,16 @@
       <c r="E202">
         <v>5.8452045218984255E-2</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A203" s="3"/>
+      <c r="F202" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A203" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B203" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C203">
         <v>177</v>
@@ -4863,11 +5815,16 @@
       <c r="E203">
         <v>0.10665991756453828</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A204" s="3"/>
+      <c r="F203" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A204" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B204" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C204">
         <v>88</v>
@@ -4878,11 +5835,16 @@
       <c r="E204">
         <v>5.3028659580109438E-2</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A205" s="3"/>
+      <c r="F204" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A205" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B205" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C205">
         <v>44</v>
@@ -4893,11 +5855,16 @@
       <c r="E205">
         <v>2.6514329790054719E-2</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A206" s="3"/>
+      <c r="F205" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A206" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B206" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C206">
         <v>49</v>
@@ -4908,11 +5875,16 @@
       <c r="E206">
         <v>2.9527321811651842E-2</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A207" s="3"/>
+      <c r="F206" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A207" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B207" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C207">
         <v>83</v>
@@ -4923,11 +5895,16 @@
       <c r="E207">
         <v>5.0015667558512306E-2</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A208" s="3"/>
+      <c r="F207" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A208" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B208" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C208">
         <v>37</v>
@@ -4938,11 +5915,16 @@
       <c r="E208">
         <v>2.2296140959818737E-2</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A209" s="3"/>
+      <c r="F208" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A209" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B209" s="1" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C209">
         <v>29</v>
@@ -4953,9 +5935,14 @@
       <c r="E209">
         <v>1.7475353725263335E-2</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A210" s="3"/>
+      <c r="F209" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A210" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B210" s="1" t="s">
         <v>25</v>
       </c>
@@ -4968,11 +5955,16 @@
       <c r="E210">
         <v>0.91353918094824871</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A211" s="3"/>
+      <c r="F210" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A211" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B211" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C211">
         <v>30</v>
@@ -4983,11 +5975,16 @@
       <c r="E211">
         <v>1.8077952129582759E-2</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A212" s="3"/>
+      <c r="F211" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A212" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B212" s="1" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C212">
         <v>44</v>
@@ -4998,9 +5995,14 @@
       <c r="E212">
         <v>2.6514329790054719E-2</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A213" s="3"/>
+      <c r="F212" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A213" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B213" s="1" t="s">
         <v>77</v>
       </c>
@@ -5013,11 +6015,16 @@
       <c r="E213">
         <v>2.5309132981415867E-2</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A214" s="3"/>
+      <c r="F213" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A214" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="B214" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C214">
         <v>32</v>
@@ -5028,13 +6035,16 @@
       <c r="E214">
         <v>1.9283148938221611E-2</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F214" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A215" s="3" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C215">
         <v>56</v>
@@ -5045,11 +6055,16 @@
       <c r="E215">
         <v>3.374551064188782E-2</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A216" s="3"/>
+      <c r="F215" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A216" s="3" t="s">
+        <v>411</v>
+      </c>
       <c r="B216" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C216">
         <v>375</v>
@@ -5060,11 +6075,16 @@
       <c r="E216">
         <v>0.22597440161978452</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A217" s="3"/>
+      <c r="F216" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A217" s="3" t="s">
+        <v>411</v>
+      </c>
       <c r="B217" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C217">
         <v>37</v>
@@ -5075,11 +6095,16 @@
       <c r="E217">
         <v>2.2296140959818737E-2</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A218" s="3"/>
+      <c r="F217" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A218" s="3" t="s">
+        <v>411</v>
+      </c>
       <c r="B218" s="1" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C218">
         <v>159</v>
@@ -5090,11 +6115,16 @@
       <c r="E218">
         <v>9.5813146286788636E-2</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A219" s="3"/>
+      <c r="F218" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A219" s="3" t="s">
+        <v>411</v>
+      </c>
       <c r="B219" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C219">
         <v>76</v>
@@ -5105,13 +6135,16 @@
       <c r="E219">
         <v>4.5797478728276331E-2</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F219" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A220" s="3" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C220">
         <v>28</v>
@@ -5122,11 +6155,16 @@
       <c r="E220">
         <v>1.687275532094391E-2</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A221" s="3"/>
+      <c r="F220" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A221" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="B221" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C221">
         <v>98</v>
@@ -5137,11 +6175,16 @@
       <c r="E221">
         <v>5.9054643623303683E-2</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A222" s="3"/>
+      <c r="F221" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A222" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="B222" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C222">
         <v>77</v>
@@ -5152,11 +6195,16 @@
       <c r="E222">
         <v>4.6400077132595752E-2</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A223" s="3"/>
+      <c r="F222" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A223" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="B223" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C223">
         <v>245</v>
@@ -5167,11 +6215,16 @@
       <c r="E223">
         <v>0.14763660905825923</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A224" s="3"/>
+      <c r="F223" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A224" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="B224" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C224">
         <v>322</v>
@@ -5182,11 +6235,16 @@
       <c r="E224">
         <v>0.19403668619085498</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A225" s="3"/>
+      <c r="F224" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A225" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="B225" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C225">
         <v>114</v>
@@ -5197,13 +6255,16 @@
       <c r="E225">
         <v>6.8696218092414482E-2</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F225" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A226" s="3" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C226">
         <v>43</v>
@@ -5214,11 +6275,16 @@
       <c r="E226">
         <v>2.5911731385735291E-2</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A227" s="3"/>
+      <c r="F226" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A227" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="B227" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C227">
         <v>38</v>
@@ -5229,11 +6295,16 @@
       <c r="E227">
         <v>2.2898739364138165E-2</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A228" s="3"/>
+      <c r="F227" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A228" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="B228" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C228">
         <v>60</v>
@@ -5244,11 +6315,16 @@
       <c r="E228">
         <v>3.6155904259165518E-2</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A229" s="3"/>
+      <c r="F228" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A229" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="B229" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C229">
         <v>47</v>
@@ -5259,9 +6335,14 @@
       <c r="E229">
         <v>2.8322125003012989E-2</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A230" s="3"/>
+      <c r="F229" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A230" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="B230" s="1" t="s">
         <v>70</v>
       </c>
@@ -5274,11 +6355,16 @@
       <c r="E230">
         <v>0.33323691758864221</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A231" s="3"/>
+      <c r="F230" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A231" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="B231" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C231">
         <v>294</v>
@@ -5289,13 +6375,16 @@
       <c r="E231">
         <v>0.17716393086991106</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F231" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A232" s="3" t="s">
-        <v>436</v>
+        <v>130</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C232">
         <v>29</v>
@@ -5306,9 +6395,14 @@
       <c r="E232">
         <v>1.7475353725263335E-2</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A233" s="3"/>
+      <c r="F232" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A233" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B233" s="1" t="s">
         <v>94</v>
       </c>
@@ -5321,9 +6415,14 @@
       <c r="E233">
         <v>1.3480126304625546</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A234" s="3"/>
+      <c r="F233" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A234" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B234" s="1" t="s">
         <v>23</v>
       </c>
@@ -5336,9 +6435,14 @@
       <c r="E234">
         <v>1.0310458697905369</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A235" s="3"/>
+      <c r="F234" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A235" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B235" s="1" t="s">
         <v>83</v>
       </c>
@@ -5351,11 +6455,16 @@
       <c r="E235">
         <v>0.57668667293369003</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A236" s="3"/>
+      <c r="F235" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A236" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B236" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C236">
         <v>1079</v>
@@ -5366,11 +6475,16 @@
       <c r="E236">
         <v>0.65020367826065995</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A237" s="3"/>
+      <c r="F236" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A237" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B237" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C237">
         <v>55</v>
@@ -5381,11 +6495,16 @@
       <c r="E237">
         <v>3.3142912237568399E-2</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A238" s="3"/>
+      <c r="F237" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A238" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B238" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C238">
         <v>159</v>
@@ -5396,11 +6515,16 @@
       <c r="E238">
         <v>9.5813146286788636E-2</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A239" s="3"/>
+      <c r="F238" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A239" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B239" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C239">
         <v>176</v>
@@ -5411,11 +6535,16 @@
       <c r="E239">
         <v>0.10605731916021888</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A240" s="3"/>
+      <c r="F239" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A240" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B240" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C240">
         <v>157</v>
@@ -5426,11 +6555,16 @@
       <c r="E240">
         <v>9.460794947814978E-2</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A241" s="3"/>
+      <c r="F240" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A241" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B241" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C241">
         <v>141</v>
@@ -5441,11 +6575,16 @@
       <c r="E241">
         <v>8.4966375009038975E-2</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A242" s="3"/>
+      <c r="F241" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A242" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B242" s="1" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C242">
         <v>156</v>
@@ -5456,11 +6595,16 @@
       <c r="E242">
         <v>9.4005351073830359E-2</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A243" s="3"/>
+      <c r="F242" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A243" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B243" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C243">
         <v>177</v>
@@ -5471,11 +6615,16 @@
       <c r="E243">
         <v>0.10665991756453828</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A244" s="3"/>
+      <c r="F243" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A244" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B244" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C244">
         <v>67</v>
@@ -5486,11 +6635,16 @@
       <c r="E244">
         <v>4.03740930894015E-2</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A245" s="3"/>
+      <c r="F244" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A245" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B245" s="1" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C245">
         <v>99</v>
@@ -5501,11 +6655,16 @@
       <c r="E245">
         <v>5.9657242027623111E-2</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A246" s="3"/>
+      <c r="F245" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A246" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B246" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C246">
         <v>131</v>
@@ -5516,11 +6675,16 @@
       <c r="E246">
         <v>7.8940390965844723E-2</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A247" s="3"/>
+      <c r="F246" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A247" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B247" s="1" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C247">
         <v>113</v>
@@ -5531,11 +6695,16 @@
       <c r="E247">
         <v>6.8093619688095075E-2</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A248" s="3"/>
+      <c r="F247" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A248" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B248" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C248">
         <v>178</v>
@@ -5546,11 +6715,16 @@
       <c r="E248">
         <v>0.10726251596885771</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A249" s="3"/>
+      <c r="F248" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A249" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B249" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C249">
         <v>236</v>
@@ -5561,11 +6735,16 @@
       <c r="E249">
         <v>0.14221322341938439</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A250" s="3"/>
+      <c r="F249" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A250" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B250" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C250">
         <v>366</v>
@@ -5576,9 +6755,14 @@
       <c r="E250">
         <v>0.22055101598090968</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A251" s="3"/>
+      <c r="F250" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A251" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B251" s="1" t="s">
         <v>57</v>
       </c>
@@ -5591,9 +6775,14 @@
       <c r="E251">
         <v>0.24827054257960326</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A252" s="3"/>
+      <c r="F251" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A252" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B252" s="1" t="s">
         <v>24</v>
       </c>
@@ -5606,9 +6795,14 @@
       <c r="E252">
         <v>0.28201605322149104</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A253" s="3"/>
+      <c r="F252" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A253" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B253" s="1" t="s">
         <v>79</v>
       </c>
@@ -5621,11 +6815,16 @@
       <c r="E253">
         <v>0.37240581386940486</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A254" s="3"/>
+      <c r="F253" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A254" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B254" s="1" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C254">
         <v>27</v>
@@ -5636,11 +6835,16 @@
       <c r="E254">
         <v>1.6270156916624486E-2</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A255" s="3"/>
+      <c r="F254" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A255" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B255" s="1" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C255">
         <v>46</v>
@@ -5651,11 +6855,16 @@
       <c r="E255">
         <v>2.7719526598693565E-2</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A256" s="3"/>
+      <c r="F255" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A256" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B256" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C256">
         <v>49</v>
@@ -5666,11 +6875,16 @@
       <c r="E256">
         <v>2.9527321811651842E-2</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A257" s="3"/>
+      <c r="F256" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A257" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B257" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C257">
         <v>70</v>
@@ -5681,13 +6895,16 @@
       <c r="E257">
         <v>4.218188830235977E-2</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F257" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A258" s="3" t="s">
-        <v>422</v>
+        <v>274</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C258">
         <v>36</v>
@@ -5698,11 +6915,16 @@
       <c r="E258">
         <v>2.1693542555499313E-2</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A259" s="3"/>
+      <c r="F258" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A259" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="B259" s="1" t="s">
-        <v>324</v>
+        <v>421</v>
       </c>
       <c r="C259">
         <v>528</v>
@@ -5713,11 +6935,16 @@
       <c r="E259">
         <v>0.31817195748065658</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A260" s="3"/>
+      <c r="F259" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A260" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="B260" s="1" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="C260">
         <v>144</v>
@@ -5728,11 +6955,16 @@
       <c r="E260">
         <v>8.6774170221997252E-2</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A261" s="3"/>
+      <c r="F260" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A261" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="B261" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C261">
         <v>599</v>
@@ -5743,11 +6975,16 @@
       <c r="E261">
         <v>0.3609564441873358</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A262" s="3"/>
+      <c r="F261" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A262" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="B262" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C262">
         <v>33</v>
@@ -5758,11 +6995,16 @@
       <c r="E262">
         <v>1.9885747342541036E-2</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A263" s="3"/>
+      <c r="F262" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A263" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="B263" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C263">
         <v>599</v>
@@ -5773,11 +7015,16 @@
       <c r="E263">
         <v>0.3609564441873358</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A264" s="3"/>
+      <c r="F263" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A264" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="B264" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C264">
         <v>35</v>
@@ -5788,11 +7035,16 @@
       <c r="E264">
         <v>2.1090944151179885E-2</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A265" s="3"/>
+      <c r="F264" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A265" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="B265" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C265">
         <v>24</v>
@@ -5803,13 +7055,16 @@
       <c r="E265">
         <v>1.4462361703666209E-2</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F265" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A266" s="3" t="s">
-        <v>437</v>
+        <v>7</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C266">
         <v>195</v>
@@ -5820,11 +7075,16 @@
       <c r="E266">
         <v>0.11750668884228796</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A267" s="3"/>
+      <c r="F266" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A267" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="B267" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C267">
         <v>124</v>
@@ -5835,9 +7095,14 @@
       <c r="E267">
         <v>7.4722202135608748E-2</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A268" s="3"/>
+      <c r="F267" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A268" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="B268" s="1" t="s">
         <v>7</v>
       </c>
@@ -5850,11 +7115,16 @@
       <c r="E268">
         <v>0.80687926338371063</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A269" s="3"/>
+      <c r="F268" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A269" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="B269" s="1" t="s">
-        <v>285</v>
+        <v>7</v>
       </c>
       <c r="C269">
         <v>1129</v>
@@ -5865,13 +7135,16 @@
       <c r="E269">
         <v>0.68033359847663122</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F269" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A270" s="3" t="s">
-        <v>438</v>
+        <v>87</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C270">
         <v>105</v>
@@ -5882,9 +7155,14 @@
       <c r="E270">
         <v>6.3272832453539665E-2</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A271" s="3"/>
+      <c r="F270" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A271" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="B271" s="1" t="s">
         <v>55</v>
       </c>
@@ -5897,9 +7175,14 @@
       <c r="E271">
         <v>0.35613565695278038</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A272" s="3"/>
+      <c r="F271" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A272" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="B272" s="1" t="s">
         <v>86</v>
       </c>
@@ -5912,9 +7195,14 @@
       <c r="E272">
         <v>0.35372526333550269</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A273" s="3"/>
+      <c r="F272" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A273" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="B273" s="1" t="s">
         <v>74</v>
       </c>
@@ -5927,9 +7215,14 @@
       <c r="E273">
         <v>0.42001108781063951</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A274" s="3"/>
+      <c r="F273" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A274" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="B274" s="1" t="s">
         <v>76</v>
       </c>
@@ -5942,11 +7235,16 @@
       <c r="E274">
         <v>0.14221322341938439</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A275" s="3"/>
+      <c r="F274" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A275" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="B275" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C275">
         <v>94</v>
@@ -5957,9 +7255,14 @@
       <c r="E275">
         <v>5.6644250006025978E-2</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A276" s="3"/>
+      <c r="F275" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A276" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="B276" s="1" t="s">
         <v>87</v>
       </c>
@@ -5972,9 +7275,14 @@
       <c r="E276">
         <v>0.17113794682671679</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A277" s="3"/>
+      <c r="F276" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A277" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="B277" s="1" t="s">
         <v>62</v>
       </c>
@@ -5987,13 +7295,16 @@
       <c r="E277">
         <v>0.18198471810446645</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F277" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A278" s="3" t="s">
-        <v>439</v>
+        <v>219</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>317</v>
+        <v>219</v>
       </c>
       <c r="C278">
         <v>96</v>
@@ -6004,11 +7315,16 @@
       <c r="E278">
         <v>5.7849446814664834E-2</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A279" s="3"/>
+      <c r="F278" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A279" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="B279" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C279">
         <v>172</v>
@@ -6019,11 +7335,16 @@
       <c r="E279">
         <v>0.10364692554294117</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A280" s="3"/>
+      <c r="F279" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A280" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="B280" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C280">
         <v>597</v>
@@ -6034,10 +7355,13 @@
       <c r="E280">
         <v>0.35975124737869696</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F280" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A281" s="3" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>110</v>
@@ -6051,11 +7375,16 @@
       <c r="E281">
         <v>0.15185479788849518</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A282" s="3"/>
+      <c r="F281" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A282" s="3" t="s">
+        <v>403</v>
+      </c>
       <c r="B282" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C282">
         <v>225</v>
@@ -6066,9 +7395,14 @@
       <c r="E282">
         <v>0.1355846409718707</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A283" s="3"/>
+      <c r="F282" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A283" s="3" t="s">
+        <v>403</v>
+      </c>
       <c r="B283" s="1" t="s">
         <v>99</v>
       </c>
@@ -6081,11 +7415,16 @@
       <c r="E283">
         <v>9.8826138308385769E-2</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A284" s="3"/>
+      <c r="F283" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A284" s="3" t="s">
+        <v>403</v>
+      </c>
       <c r="B284" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C284">
         <v>169</v>
@@ -6096,9 +7435,14 @@
       <c r="E284">
         <v>0.10183913032998289</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A285" s="3"/>
+      <c r="F284" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A285" s="3" t="s">
+        <v>403</v>
+      </c>
       <c r="B285" s="1" t="s">
         <v>38</v>
       </c>
@@ -6111,11 +7455,16 @@
       <c r="E285">
         <v>0.41639549738472292</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A286" s="3"/>
+      <c r="F285" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A286" s="3" t="s">
+        <v>403</v>
+      </c>
       <c r="B286" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C286">
         <v>896</v>
@@ -6126,13 +7475,16 @@
       <c r="E286">
         <v>0.53992817027020512</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F286" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A287" s="3" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C287">
         <v>215</v>
@@ -6143,11 +7495,16 @@
       <c r="E287">
         <v>0.12955865692867644</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A288" s="3"/>
+      <c r="F287" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A288" s="3" t="s">
+        <v>413</v>
+      </c>
       <c r="B288" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C288">
         <v>720</v>
@@ -6158,9 +7515,14 @@
       <c r="E288">
         <v>0.43387085110998624</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A289" s="3"/>
+      <c r="F288" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A289" s="3" t="s">
+        <v>413</v>
+      </c>
       <c r="B289" s="1" t="s">
         <v>5</v>
       </c>
@@ -6173,9 +7535,14 @@
       <c r="E289">
         <v>0.66105044953840963</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A290" s="3"/>
+      <c r="F289" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A290" s="3" t="s">
+        <v>413</v>
+      </c>
       <c r="B290" s="1" t="s">
         <v>40</v>
       </c>
@@ -6188,9 +7555,14 @@
       <c r="E290">
         <v>0.24586014896232555</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A291" s="3"/>
+      <c r="F290" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A291" s="3" t="s">
+        <v>413</v>
+      </c>
       <c r="B291" s="1" t="s">
         <v>63</v>
       </c>
@@ -6203,11 +7575,16 @@
       <c r="E291">
         <v>2.4706534577096442E-2</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A292" s="3"/>
+      <c r="F291" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A292" s="3" t="s">
+        <v>413</v>
+      </c>
       <c r="B292" s="1" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C292">
         <v>33</v>
@@ -6218,13 +7595,16 @@
       <c r="E292">
         <v>1.9885747342541036E-2</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F292" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A293" s="3" t="s">
-        <v>440</v>
+        <v>10</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="C293">
         <v>53</v>
@@ -6235,9 +7615,14 @@
       <c r="E293">
         <v>3.1937715428929543E-2</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A294" s="3"/>
+      <c r="F293" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A294" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B294" s="1" t="s">
         <v>10</v>
       </c>
@@ -6250,11 +7635,16 @@
       <c r="E294">
         <v>0.19644707980813267</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A295" s="3"/>
+      <c r="F294" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A295" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B295" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C295">
         <v>44</v>
@@ -6265,11 +7655,16 @@
       <c r="E295">
         <v>2.6514329790054719E-2</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A296" s="3"/>
+      <c r="F295" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A296" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B296" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C296">
         <v>194</v>
@@ -6280,11 +7675,16 @@
       <c r="E296">
         <v>0.11690409043796851</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A297" s="3"/>
+      <c r="F296" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A297" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B297" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C297">
         <v>87</v>
@@ -6295,11 +7695,16 @@
       <c r="E297">
         <v>5.2426061175790011E-2</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A298" s="3"/>
+      <c r="F297" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A298" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B298" s="1" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C298">
         <v>24</v>
@@ -6310,11 +7715,16 @@
       <c r="E298">
         <v>1.4462361703666209E-2</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A299" s="3"/>
+      <c r="F298" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A299" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B299" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C299">
         <v>81</v>
@@ -6325,13 +7735,16 @@
       <c r="E299">
         <v>4.8810470749873457E-2</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F299" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A300" s="3" t="s">
-        <v>441</v>
+        <v>141</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C300">
         <v>17</v>
@@ -6342,9 +7755,14 @@
       <c r="E300">
         <v>1.0244172873430232E-2</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A301" s="3"/>
+      <c r="F300" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A301" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="B301" s="1" t="s">
         <v>8</v>
       </c>
@@ -6357,11 +7775,16 @@
       <c r="E301">
         <v>0.69178296815870033</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A302" s="3"/>
+      <c r="F301" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A302" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="B302" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C302">
         <v>215</v>
@@ -6372,11 +7795,16 @@
       <c r="E302">
         <v>0.12955865692867644</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A303" s="3"/>
+      <c r="F302" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A303" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="B303" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C303">
         <v>129</v>
@@ -6387,11 +7815,16 @@
       <c r="E303">
         <v>7.7735194157205867E-2</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A304" s="3"/>
+      <c r="F303" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A304" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="B304" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C304">
         <v>49</v>
@@ -6402,13 +7835,16 @@
       <c r="E304">
         <v>2.9527321811651842E-2</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F304" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A305" s="3" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C305">
         <v>14</v>
@@ -6419,9 +7855,14 @@
       <c r="E305">
         <v>8.436377660471955E-3</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A306" s="3"/>
+      <c r="F305" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A306" s="3" t="s">
+        <v>405</v>
+      </c>
       <c r="B306" s="1" t="s">
         <v>34</v>
       </c>
@@ -6434,9 +7875,14 @@
       <c r="E306">
         <v>0.14281582182370381</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A307" s="3"/>
+      <c r="F306" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A307" s="3" t="s">
+        <v>405</v>
+      </c>
       <c r="B307" s="1" t="s">
         <v>105</v>
       </c>
@@ -6449,11 +7895,16 @@
       <c r="E307">
         <v>0.11991708245956566</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A308" s="3"/>
+      <c r="F307" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A308" s="3" t="s">
+        <v>405</v>
+      </c>
       <c r="B308" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C308">
         <v>131</v>
@@ -6464,9 +7915,14 @@
       <c r="E308">
         <v>7.8940390965844723E-2</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A309" s="3"/>
+      <c r="F308" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A309" s="3" t="s">
+        <v>405</v>
+      </c>
       <c r="B309" s="1" t="s">
         <v>85</v>
       </c>
@@ -6479,13 +7935,16 @@
       <c r="E309">
         <v>0.12112227926820451</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F309" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A310" s="3" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C310">
         <v>30</v>
@@ -6496,11 +7955,16 @@
       <c r="E310">
         <v>1.8077952129582759E-2</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A311" s="3"/>
+      <c r="F310" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A311" s="3" t="s">
+        <v>406</v>
+      </c>
       <c r="B311" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C311">
         <v>163</v>
@@ -6511,11 +7975,16 @@
       <c r="E311">
         <v>9.8223539904066334E-2</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A312" s="3"/>
+      <c r="F311" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A312" s="3" t="s">
+        <v>406</v>
+      </c>
       <c r="B312" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C312">
         <v>228</v>
@@ -6526,13 +7995,16 @@
       <c r="E312">
         <v>0.13739243618482896</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F312" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A313" s="3" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C313">
         <v>68</v>
@@ -6543,11 +8015,16 @@
       <c r="E313">
         <v>4.0976691493720928E-2</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A314" s="3"/>
+      <c r="F313" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A314" s="3" t="s">
+        <v>418</v>
+      </c>
       <c r="B314" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C314">
         <v>353</v>
@@ -6558,13 +8035,16 @@
       <c r="E314">
         <v>0.21271723672475715</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F314" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A315" s="3" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C315">
         <v>52</v>
@@ -6575,11 +8055,16 @@
       <c r="E315">
         <v>3.1335117024610122E-2</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A316" s="3"/>
+      <c r="F315" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A316" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="B316" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C316">
         <v>205</v>
@@ -6590,13 +8075,16 @@
       <c r="E316">
         <v>0.12353267288548218</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F316" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A317" s="3" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C317">
         <v>93</v>
@@ -6607,11 +8095,16 @@
       <c r="E317">
         <v>5.6041651601706557E-2</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A318" s="3"/>
+      <c r="F317" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A318" s="3" t="s">
+        <v>408</v>
+      </c>
       <c r="B318" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C318">
         <v>443</v>
@@ -6622,11 +8115,16 @@
       <c r="E318">
         <v>0.26695109311350546</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A319" s="3"/>
+      <c r="F318" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A319" s="3" t="s">
+        <v>408</v>
+      </c>
       <c r="B319" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C319">
         <v>553</v>
@@ -6637,9 +8135,14 @@
       <c r="E319">
         <v>0.33323691758864221</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A320" s="3"/>
+      <c r="F319" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A320" s="3" t="s">
+        <v>408</v>
+      </c>
       <c r="B320" s="1" t="s">
         <v>82</v>
       </c>
@@ -6652,13 +8155,16 @@
       <c r="E320">
         <v>9.0992359052233227E-2</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F320" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A321" s="3" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C321">
         <v>52</v>
@@ -6669,9 +8175,14 @@
       <c r="E321">
         <v>3.1335117024610122E-2</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A322" s="3"/>
+      <c r="F321" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A322" s="3" t="s">
+        <v>409</v>
+      </c>
       <c r="B322" s="1" t="s">
         <v>65</v>
       </c>
@@ -6684,9 +8195,14 @@
       <c r="E322">
         <v>5.6041651601706557E-2</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A323" s="3"/>
+      <c r="F322" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A323" s="3" t="s">
+        <v>409</v>
+      </c>
       <c r="B323" s="1" t="s">
         <v>66</v>
       </c>
@@ -6699,11 +8215,16 @@
       <c r="E323">
         <v>5.6041651601706557E-2</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A324" s="3"/>
+      <c r="F323" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A324" s="3" t="s">
+        <v>409</v>
+      </c>
       <c r="B324" s="2" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="C324">
         <v>277</v>
@@ -6714,11 +8235,16 @@
       <c r="E324">
         <v>0.16691975799648082</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A325" s="3"/>
+      <c r="F324" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A325" s="3" t="s">
+        <v>409</v>
+      </c>
       <c r="B325" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C325">
         <v>185</v>
@@ -6729,11 +8255,16 @@
       <c r="E325">
         <v>0.11148070479909369</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A326" s="3"/>
+      <c r="F325" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A326" s="3" t="s">
+        <v>409</v>
+      </c>
       <c r="B326" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C326">
         <v>269</v>
@@ -6744,13 +8275,16 @@
       <c r="E326">
         <v>0.16209897076192542</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F326" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A327" s="3" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C327">
         <v>165</v>
@@ -6761,11 +8295,16 @@
       <c r="E327">
         <v>9.9428736712705176E-2</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A328" s="3"/>
+      <c r="F327" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A328" s="3" t="s">
+        <v>410</v>
+      </c>
       <c r="B328" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C328">
         <v>178</v>
@@ -6776,10 +8315,13 @@
       <c r="E328">
         <v>0.10726251596885771</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F328" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B329" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C329">
         <v>139</v>
@@ -6790,10 +8332,13 @@
       <c r="E329">
         <v>8.3761178200400119E-2</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F329" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B330" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C330">
         <v>175</v>
@@ -6804,10 +8349,13 @@
       <c r="E330">
         <v>0.10545472075589944</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F330" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B331" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C331">
         <v>175</v>
@@ -6818,8 +8366,11 @@
       <c r="E331">
         <v>0.10545472075589944</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F331" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B332" s="1" t="s">
         <v>89</v>
       </c>
@@ -6832,8 +8383,11 @@
       <c r="E332">
         <v>0.19343408778653554</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F332" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B333" s="1" t="s">
         <v>90</v>
       </c>
@@ -6846,8 +8400,11 @@
       <c r="E333">
         <v>0.19343408778653554</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F333" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B334" s="1" t="s">
         <v>91</v>
       </c>
@@ -6860,10 +8417,13 @@
       <c r="E334">
         <v>0.19343408778653554</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F334" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B335" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C335">
         <v>288</v>
@@ -6874,10 +8434,13 @@
       <c r="E335">
         <v>0.1735483404439945</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F335" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B336" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C336">
         <v>321</v>
@@ -6888,10 +8451,13 @@
       <c r="E336">
         <v>0.19343408778653554</v>
       </c>
-    </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F336" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="337" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B337" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C337">
         <v>152</v>
@@ -6902,8 +8468,11 @@
       <c r="E337">
         <v>9.1594957456552661E-2</v>
       </c>
-    </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F337" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="338" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B338" s="1" t="s">
         <v>6</v>
       </c>
@@ -6916,10 +8485,13 @@
       <c r="E338">
         <v>0.20910164629884062</v>
       </c>
-    </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F338" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B339" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C339">
         <v>474</v>
@@ -6930,8 +8502,11 @@
       <c r="E339">
         <v>0.28563164364740762</v>
       </c>
-    </row>
-    <row r="340" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F339" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="340" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B340" s="1" t="s">
         <v>52</v>
       </c>
@@ -6944,10 +8519,13 @@
       <c r="E340">
         <v>0.29708101332947673</v>
       </c>
-    </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F340" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="341" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B341" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C341">
         <v>145</v>
@@ -6958,10 +8536,13 @@
       <c r="E341">
         <v>8.7376768626316673E-2</v>
       </c>
-    </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F341" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="342" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B342" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C342">
         <v>176</v>
@@ -6972,10 +8553,13 @@
       <c r="E342">
         <v>0.10605731916021888</v>
       </c>
-    </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F342" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="343" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B343" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C343">
         <v>181</v>
@@ -6986,8 +8570,11 @@
       <c r="E343">
         <v>0.109070311181816</v>
       </c>
-    </row>
-    <row r="344" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F343" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="344" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B344" s="1" t="s">
         <v>43</v>
       </c>
@@ -7000,10 +8587,13 @@
       <c r="E344">
         <v>0.28020825800853277</v>
       </c>
-    </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F344" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="345" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B345" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C345">
         <v>186</v>
@@ -7014,10 +8604,13 @@
       <c r="E345">
         <v>0.11208330320341311</v>
       </c>
-    </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F345" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="346" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B346" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C346">
         <v>162</v>
@@ -7028,10 +8621,13 @@
       <c r="E346">
         <v>9.7620941499746913E-2</v>
       </c>
-    </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F346" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="347" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B347" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C347">
         <v>229</v>
@@ -7042,10 +8638,13 @@
       <c r="E347">
         <v>0.13799503458914841</v>
       </c>
-    </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F347" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="348" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B348" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C348">
         <v>276</v>
@@ -7056,8 +8655,11 @@
       <c r="E348">
         <v>0.16631715959216142</v>
       </c>
-    </row>
-    <row r="349" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F348" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="349" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B349" s="1" t="s">
         <v>69</v>
       </c>
@@ -7070,8 +8672,11 @@
       <c r="E349">
         <v>0.46882155856051294</v>
       </c>
-    </row>
-    <row r="350" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F349" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="350" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B350" s="1" t="s">
         <v>18</v>
       </c>
@@ -7084,8 +8689,11 @@
       <c r="E350">
         <v>0.34950707450526669</v>
       </c>
-    </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F350" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="351" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B351" s="1" t="s">
         <v>49</v>
       </c>
@@ -7098,8 +8706,11 @@
       <c r="E351">
         <v>0.37240581386940486</v>
       </c>
-    </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F351" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="352" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B352" s="1" t="s">
         <v>50</v>
       </c>
@@ -7112,8 +8723,11 @@
       <c r="E352">
         <v>0.47424494419938773</v>
       </c>
-    </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F352" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="353" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B353" s="1" t="s">
         <v>20</v>
       </c>
@@ -7126,8 +8740,11 @@
       <c r="E353">
         <v>0.26875888832646372</v>
       </c>
-    </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F353" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="354" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B354" s="1" t="s">
         <v>53</v>
       </c>
@@ -7140,8 +8757,11 @@
       <c r="E354">
         <v>0.46038518090004099</v>
       </c>
-    </row>
-    <row r="355" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F354" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="355" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B355" s="1" t="s">
         <v>42</v>
       </c>
@@ -7154,8 +8774,11 @@
       <c r="E355">
         <v>0.5730710825077735</v>
       </c>
-    </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F355" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="356" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B356" s="1" t="s">
         <v>61</v>
       </c>
@@ -7168,10 +8791,13 @@
       <c r="E356">
         <v>0.22055101598090968</v>
       </c>
-    </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F356" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="357" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B357" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C357">
         <v>263</v>
@@ -7182,10 +8808,13 @@
       <c r="E357">
         <v>0.15848338033600887</v>
       </c>
-    </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F357" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="358" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B358" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C358">
         <v>271</v>
@@ -7196,8 +8825,11 @@
       <c r="E358">
         <v>0.16330416757056426</v>
       </c>
-    </row>
-    <row r="359" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F358" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="359" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B359" s="1" t="s">
         <v>54</v>
       </c>
@@ -7210,8 +8842,11 @@
       <c r="E359">
         <v>0.31094077662882347</v>
       </c>
-    </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F359" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="360" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B360" s="1" t="s">
         <v>75</v>
       </c>
@@ -7224,8 +8859,11 @@
       <c r="E360">
         <v>0.42001108781063951</v>
       </c>
-    </row>
-    <row r="361" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F360" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="361" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B361" s="1" t="s">
         <v>1</v>
       </c>
@@ -7238,8 +8876,11 @@
       <c r="E361">
         <v>0.73396485646106013</v>
       </c>
-    </row>
-    <row r="362" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F361" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B362" s="1" t="s">
         <v>48</v>
       </c>
@@ -7252,10 +8893,13 @@
       <c r="E362">
         <v>0.51582423409742817</v>
       </c>
-    </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F362" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="363" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B363" s="1" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C363">
         <v>338</v>
@@ -7266,10 +8910,13 @@
       <c r="E363">
         <v>0.20367826065996578</v>
       </c>
-    </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F363" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="364" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B364" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C364">
         <v>474</v>
@@ -7280,10 +8927,13 @@
       <c r="E364">
         <v>0.28563164364740762</v>
       </c>
-    </row>
-    <row r="365" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F364" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="365" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B365" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C365">
         <v>293</v>
@@ -7294,8 +8944,11 @@
       <c r="E365">
         <v>0.17656133246559164</v>
       </c>
-    </row>
-    <row r="366" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F365" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="366" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B366" s="1" t="s">
         <v>56</v>
       </c>
@@ -7308,8 +8961,11 @@
       <c r="E366">
         <v>0.61103478197989725</v>
       </c>
-    </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F366" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="367" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B367" s="1" t="s">
         <v>102</v>
       </c>
@@ -7322,10 +8978,13 @@
       <c r="E367">
         <v>0.56825029527321813</v>
       </c>
-    </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F367" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="368" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B368" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C368">
         <v>474</v>
@@ -7336,8 +8995,11 @@
       <c r="E368">
         <v>0.28563164364740762</v>
       </c>
-    </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F368" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="369" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B369" s="1" t="s">
         <v>19</v>
       </c>
@@ -7350,8 +9012,11 @@
       <c r="E369">
         <v>0.40675392291561213</v>
       </c>
-    </row>
-    <row r="370" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F369" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="370" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B370" s="1" t="s">
         <v>4</v>
       </c>
@@ -7364,10 +9029,13 @@
       <c r="E370">
         <v>1.3389736543977631</v>
       </c>
-    </row>
-    <row r="371" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F370" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B371" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C371">
         <v>565</v>
@@ -7378,8 +9046,11 @@
       <c r="E371">
         <v>0.34046809844047532</v>
       </c>
-    </row>
-    <row r="372" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F371" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="372" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B372" s="1" t="s">
         <v>33</v>
       </c>
@@ -7392,8 +9063,11 @@
       <c r="E372">
         <v>0.68937257454142253</v>
       </c>
-    </row>
-    <row r="373" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F372" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="373" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B373" s="1" t="s">
         <v>67</v>
       </c>
@@ -7406,8 +9080,11 @@
       <c r="E373">
         <v>0.6236893484706052</v>
       </c>
-    </row>
-    <row r="374" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F373" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="374" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B374" s="1" t="s">
         <v>97</v>
       </c>
@@ -7420,8 +9097,11 @@
       <c r="E374">
         <v>0.32118494950225368</v>
       </c>
-    </row>
-    <row r="375" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F374" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="375" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B375" s="1" t="s">
         <v>32</v>
       </c>
@@ -7434,10 +9114,13 @@
       <c r="E375">
         <v>1.1172174416082146</v>
       </c>
-    </row>
-    <row r="376" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F375" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="376" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B376" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C376">
         <v>869</v>
@@ -7448,8 +9131,11 @@
       <c r="E376">
         <v>0.52365801335358064</v>
       </c>
-    </row>
-    <row r="377" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F376" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="377" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B377" s="1" t="s">
         <v>35</v>
       </c>
@@ -7462,10 +9148,13 @@
       <c r="E377">
         <v>1.1883240533179069</v>
       </c>
-    </row>
-    <row r="378" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F377" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="378" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B378" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C378">
         <v>507</v>
@@ -7476,10 +9165,13 @@
       <c r="E378">
         <v>0.30551739098994862</v>
       </c>
-    </row>
-    <row r="379" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F378" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="379" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B379" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C379">
         <v>783</v>
@@ -7490,10 +9182,13 @@
       <c r="E379">
         <v>0.4718345505821101</v>
       </c>
-    </row>
-    <row r="380" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F379" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="380" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B380" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C380">
         <v>630</v>
@@ -7504,10 +9199,13 @@
       <c r="E380">
         <v>0.37963699472123796</v>
       </c>
-    </row>
-    <row r="381" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F380" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="381" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B381" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C381">
         <v>308</v>
@@ -7518,8 +9216,11 @@
       <c r="E381">
         <v>0.18560030853038301</v>
       </c>
-    </row>
-    <row r="382" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F381" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="382" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B382" s="1" t="s">
         <v>109</v>
       </c>
@@ -7532,8 +9233,11 @@
       <c r="E382">
         <v>0.58090486176392608</v>
       </c>
-    </row>
-    <row r="383" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F382" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="383" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B383" s="1" t="s">
         <v>45</v>
       </c>
@@ -7546,10 +9250,13 @@
       <c r="E383">
         <v>0.49593848675488711</v>
       </c>
-    </row>
-    <row r="384" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F383" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="384" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B384" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C384">
         <v>975</v>
@@ -7560,10 +9267,13 @@
       <c r="E384">
         <v>0.58753344421143971</v>
       </c>
-    </row>
-    <row r="385" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F384" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="385" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B385" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C385">
         <v>975</v>
@@ -7574,10 +9284,13 @@
       <c r="E385">
         <v>0.58753344421143971</v>
       </c>
-    </row>
-    <row r="386" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F385" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="386" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B386" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C386">
         <v>1490</v>
@@ -7588,10 +9301,13 @@
       <c r="E386">
         <v>0.89787162243594387</v>
       </c>
-    </row>
-    <row r="387" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F386" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="387" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B387" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C387">
         <v>675</v>
@@ -7602,10 +9318,13 @@
       <c r="E387">
         <v>0.40675392291561213</v>
       </c>
-    </row>
-    <row r="388" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F387" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="388" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B388" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C388">
         <v>592</v>
@@ -7616,8 +9335,11 @@
       <c r="E388">
         <v>0.3567382553570998</v>
       </c>
-    </row>
-    <row r="389" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F388" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="389" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B389" s="1" t="s">
         <v>103</v>
       </c>
@@ -7630,10 +9352,13 @@
       <c r="E389">
         <v>0.24827054257960326</v>
       </c>
-    </row>
-    <row r="390" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F389" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="390" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B390" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C390">
         <v>1362</v>
@@ -7644,8 +9369,11 @@
       <c r="E390">
         <v>0.82073902668305732</v>
       </c>
-    </row>
-    <row r="391" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F390" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="391" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B391" s="1" t="s">
         <v>22</v>
       </c>
@@ -7658,10 +9386,13 @@
       <c r="E391">
         <v>0.22296140959818739</v>
       </c>
-    </row>
-    <row r="392" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F391" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="392" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B392" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C392">
         <v>1846</v>
@@ -7672,8 +9403,11 @@
       <c r="E392">
         <v>1.1123966543736592</v>
       </c>
-    </row>
-    <row r="393" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F392" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="393" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B393" s="1" t="s">
         <v>3</v>
       </c>
@@ -7686,10 +9420,13 @@
       <c r="E393">
         <v>0.45315400004820783</v>
       </c>
-    </row>
-    <row r="394" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F393" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B394" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C394">
         <v>628</v>
@@ -7700,8 +9437,11 @@
       <c r="E394">
         <v>0.37843179791259912</v>
       </c>
-    </row>
-    <row r="395" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F394" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="395" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B395" s="1" t="s">
         <v>59</v>
       </c>
@@ -7714,8 +9454,11 @@
       <c r="E395">
         <v>0.50738785643695616</v>
       </c>
-    </row>
-    <row r="396" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F395" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="396" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B396" s="1" t="s">
         <v>92</v>
       </c>
@@ -7728,8 +9471,11 @@
       <c r="E396">
         <v>0.52667100537517775</v>
       </c>
-    </row>
-    <row r="397" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F396" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="397" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B397" s="1" t="s">
         <v>88</v>
       </c>
@@ -7742,8 +9488,11 @@
       <c r="E397">
         <v>0.48870730590305395</v>
       </c>
-    </row>
-    <row r="398" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F397" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="398" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B398" s="1" t="s">
         <v>104</v>
       </c>
@@ -7756,8 +9505,11 @@
       <c r="E398">
         <v>0.71889989635307439</v>
       </c>
-    </row>
-    <row r="399" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F398" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="399" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B399" s="1" t="s">
         <v>39</v>
       </c>
@@ -7770,8 +9522,11 @@
       <c r="E399">
         <v>0.88702485115819407</v>
       </c>
-    </row>
-    <row r="400" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F399" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="400" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B400" s="1" t="s">
         <v>14</v>
       </c>
@@ -7784,8 +9539,11 @@
       <c r="E400">
         <v>0.65683226070817358</v>
       </c>
-    </row>
-    <row r="401" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F400" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="401" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B401" s="1" t="s">
         <v>51</v>
       </c>
@@ -7798,8 +9556,11 @@
       <c r="E401">
         <v>0.62127895485332763</v>
       </c>
-    </row>
-    <row r="402" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F401" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="402" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B402" s="1" t="s">
         <v>13</v>
       </c>
@@ -7812,8 +9573,11 @@
       <c r="E402">
         <v>0.64116470219586863</v>
       </c>
-    </row>
-    <row r="403" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F402" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="403" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B403" s="1" t="s">
         <v>101</v>
       </c>
@@ -7826,10 +9590,13 @@
       <c r="E403">
         <v>0.63935690698291037</v>
       </c>
-    </row>
-    <row r="404" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F403" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="404" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B404" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C404">
         <v>964</v>
@@ -7840,8 +9607,11 @@
       <c r="E404">
         <v>0.58090486176392608</v>
       </c>
-    </row>
-    <row r="405" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F404" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="405" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B405" s="1" t="s">
         <v>15</v>
       </c>
@@ -7854,8 +9624,11 @@
       <c r="E405">
         <v>0.92800154265191503</v>
       </c>
-    </row>
-    <row r="406" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F405" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="406" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B406" s="1" t="s">
         <v>9</v>
       </c>
@@ -7868,8 +9641,11 @@
       <c r="E406">
         <v>1.3986308964253862</v>
       </c>
-    </row>
-    <row r="407" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F406" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="407" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B407" s="1" t="s">
         <v>81</v>
       </c>
@@ -7882,8 +9658,11 @@
       <c r="E407">
         <v>1.1184226384168534</v>
       </c>
-    </row>
-    <row r="408" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F407" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="408" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B408" s="1" t="s">
         <v>11</v>
       </c>
@@ -7896,50 +9675,20 @@
       <c r="E408">
         <v>1.3648853857834984</v>
       </c>
-    </row>
-    <row r="409" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F408" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="409" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E409">
         <f>SUM(E2:E408)</f>
         <v>99.299780654180793</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E429">
+  <sortState ref="B2:E429">
     <sortCondition ref="D2"/>
   </sortState>
-  <mergeCells count="31">
-    <mergeCell ref="A14:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="A56:A80"/>
-    <mergeCell ref="A93:A144"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A215:A219"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A270:A277"/>
-    <mergeCell ref="A145:A214"/>
-    <mergeCell ref="A266:A269"/>
-    <mergeCell ref="A226:A231"/>
-    <mergeCell ref="A258:A265"/>
-    <mergeCell ref="A278:A280"/>
-    <mergeCell ref="A232:A257"/>
-    <mergeCell ref="A287:A292"/>
-    <mergeCell ref="A327:A328"/>
-    <mergeCell ref="A81:A89"/>
-    <mergeCell ref="A281:A286"/>
-    <mergeCell ref="A293:A299"/>
-    <mergeCell ref="A315:A316"/>
-    <mergeCell ref="A220:A225"/>
-    <mergeCell ref="A317:A320"/>
-    <mergeCell ref="A321:A326"/>
-    <mergeCell ref="A300:A304"/>
-    <mergeCell ref="A310:A312"/>
-    <mergeCell ref="A305:A309"/>
-    <mergeCell ref="A313:A314"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
